--- a/Ebook/OCA_Ebook_Note.xlsx
+++ b/Ebook/OCA_Ebook_Note.xlsx
@@ -8,12 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\FullStack\WebFullStackPractice\Ebook\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CD8EA2A-58A9-4FD6-B478-E65BBAD05A4B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B84A92FA-9CC8-45FE-9E67-8EF0F212B708}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="guideLine" sheetId="4" r:id="rId1"/>
+    <sheet name="OCA Ebook" sheetId="1" r:id="rId2"/>
+    <sheet name="FromInternet" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="120">
   <si>
     <t xml:space="preserve">Writing a Main() medthod </t>
   </si>
@@ -164,12 +167,297 @@
   <si>
     <t>-&gt; muốn thực hiện thì phải đưa vào block code {}</t>
   </si>
+  <si>
+    <t>Final keywords</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1/ </t>
+  </si>
+  <si>
+    <t>Apply for methods</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3/ </t>
+  </si>
+  <si>
+    <t>Apply for Class</t>
+  </si>
+  <si>
+    <t>Apply for variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tuy nhiên vẫn chỉ được 1 lần. Còn C++ thì bắt buộc initialize ngay khi khai báo </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Có một điểm khác biệt so với const của C++ -&gt; việc initialize có thể thực hiện sau khi khai báo </t>
+  </si>
+  <si>
+    <t>Đối với reference variable -&gt; final chỉ mang ý nghĩa là sẽ không được TRỎ tới đối tượng khác nữa</t>
+  </si>
+  <si>
+    <t>Việc đối tượng có thể thay đổi là chuyện bình thường</t>
+  </si>
+  <si>
+    <t xml:space="preserve">phoneBookFileName </t>
+  </si>
+  <si>
+    <t>phoneBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadPhoneBook() </t>
+  </si>
+  <si>
+    <t xml:space="preserve">showMenu() </t>
+  </si>
+  <si>
+    <t>handleUserMenuSelection()</t>
+  </si>
+  <si>
+    <t>UserOption</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneBook </t>
+  </si>
+  <si>
+    <t>PhoneBook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fileName </t>
+  </si>
+  <si>
+    <t>entriesMap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">numUnsavedChanges </t>
+  </si>
+  <si>
+    <t xml:space="preserve">getEntries() </t>
+  </si>
+  <si>
+    <t>getFileName()</t>
+  </si>
+  <si>
+    <t>getSize()</t>
+  </si>
+  <si>
+    <t>getNumUnsavedChanges()</t>
+  </si>
+  <si>
+    <t>addContact()</t>
+  </si>
+  <si>
+    <t>addFromDisk()</t>
+  </si>
+  <si>
+    <t>deleteContact()</t>
+  </si>
+  <si>
+    <t>display()</t>
+  </si>
+  <si>
+    <t>isValidName(String name)</t>
+  </si>
+  <si>
+    <t>isValidPhoneNumber(String number)</t>
+  </si>
+  <si>
+    <t>save()</t>
+  </si>
+  <si>
+    <t>AddContactResult</t>
+  </si>
+  <si>
+    <t>PhoneBook load(String fileName)</t>
+  </si>
+  <si>
+    <t>PhoneBookEntry</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>isNew</t>
+  </si>
+  <si>
+    <t>getName()</t>
+  </si>
+  <si>
+    <t>setIsNew()</t>
+  </si>
+  <si>
+    <t>setNumber()</t>
+  </si>
+  <si>
+    <t>PhoneBookManager</t>
+  </si>
+  <si>
+    <t>getFileNameWithExtension()</t>
+  </si>
+  <si>
+    <t>closeCloseable()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneBookApp </t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneBookFileManager </t>
+  </si>
+  <si>
+    <t>-&gt; saving and loading a phone book to and from a file on disk</t>
+  </si>
+  <si>
+    <t xml:space="preserve">datamodel for phonebook </t>
+  </si>
+  <si>
+    <t>Storing data into phonebook</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PhoneBook Features </t>
+  </si>
+  <si>
+    <t xml:space="preserve">View contacts </t>
+  </si>
+  <si>
+    <t>Add contacts</t>
+  </si>
+  <si>
+    <t>Delete contact</t>
+  </si>
+  <si>
+    <t>Save</t>
+  </si>
+  <si>
+    <t>Save and quit</t>
+  </si>
+  <si>
+    <t>Quit withou save</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to build by javac in cmd window </t>
+  </si>
+  <si>
+    <t xml:space="preserve">for just .java file </t>
+  </si>
+  <si>
+    <t>javac filenam.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">in case of packages </t>
+  </si>
+  <si>
+    <t>use case 1</t>
+  </si>
+  <si>
+    <t>user case 2</t>
+  </si>
+  <si>
+    <t>javac -d folder1\subfolder1\subfolder2\FileName.java</t>
+  </si>
+  <si>
+    <t>javac -d &lt;classpath&gt; folder1\subfolder1\subfolder2\FileName.java</t>
+  </si>
+  <si>
+    <t xml:space="preserve">how to run </t>
+  </si>
+  <si>
+    <t>cd &lt;classpath&gt; -&gt; run cmd : java folder1.subfolder1.subfolder2.FileNam</t>
+  </si>
+  <si>
+    <t>run cmd : java folder1.subfolder1.subfolder2.FileNam</t>
+  </si>
+  <si>
+    <t>Can we override a static method?</t>
+  </si>
+  <si>
+    <t>The calling of method depends upon the type of object that calls the static method. It means:</t>
+  </si>
+  <si>
+    <t>If we call a static method by using the parent class object, the original static method will be called from the parent class.</t>
+  </si>
+  <si>
+    <t>If we call a static method by using the child class object, the static method of the child class will be called.</t>
+  </si>
+  <si>
+    <t>No, we cannot override static methods because method overriding is based on dynamic binding at runtime</t>
+  </si>
+  <si>
+    <t>https://www.javatpoint.com/can-we-override-static-method-in-java#:~:text=Can%20we%20override%20a%20static,static%20binding%20at%20compile%20time.&amp;text=If%20we%20call%20a%20static%20method%20by%20using%20the%20child,child%20class%20will%20be%20called.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>the static methods are bonded using static binding at compile time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>. So, we cannot override static methods.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Static method accessed directly in static and non-static method</t>
+  </si>
+  <si>
+    <t>short x = 14;</t>
+  </si>
+  <si>
+    <t>float y = (float)13.12356;</t>
+  </si>
+  <si>
+    <t>double z = 30.15;</t>
+  </si>
+  <si>
+    <t>System.out.println("result : " + k);</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">String k = </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>String.format</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t>("%.2f",(x + y + z));</t>
+    </r>
+  </si>
+  <si>
+    <t>using String.format to format double value into specifcied decimal spaces</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +494,43 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -220,8 +543,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -229,11 +564,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -242,8 +615,26 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -257,6 +648,386 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>4862</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>132280</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>18367</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01C2B7DD-52D9-4AAE-A564-05E60F010A51}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="557312" y="3562350"/>
+          <a:ext cx="6756818" cy="4314142"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>85095</xdr:colOff>
+      <xdr:row>99</xdr:row>
+      <xdr:rowOff>9192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2CC31F40-DE03-4F83-AC24-CA4AB96D9F6F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="847725" y="10677525"/>
+          <a:ext cx="5038095" cy="2666667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>94479</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>171220</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B1DE9283-243A-475C-AAB9-BBD6C7F7C58E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="828675" y="8810625"/>
+          <a:ext cx="6171429" cy="1838095"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>80</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>131580</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57BA1894-B7E7-4B82-A419-1C60A6A2CA0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7181850" y="8820150"/>
+          <a:ext cx="5379855" cy="3829050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>96</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>40</xdr:col>
+      <xdr:colOff>161283</xdr:colOff>
+      <xdr:row>105</xdr:row>
+      <xdr:rowOff>75949</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C8B68C3-7A7A-4B74-B0CB-CB759641E14B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6076950" y="12830175"/>
+          <a:ext cx="5133333" cy="2009524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1257300</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="Flowchart: Magnetic Disk 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC18C010-08D6-4256-86D0-CC70BE0663D1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7629525" y="2962275"/>
+          <a:ext cx="1390650" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartMagneticDisk">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>DATA</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> MODEL</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>(Key, Value)</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>2190750</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Flowchart: Process 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{92BF06D3-02FF-494D-96D4-D5F22A5EB209}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9505950" y="3133725"/>
+          <a:ext cx="1981200" cy="923925"/>
+        </a:xfrm>
+        <a:prstGeom prst="flowChartProcess">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Type</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> : HashMap ()</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Methods(): add, getEntries, ...</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,11 +1292,271 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAD001E9-0C2F-4D03-9967-9756C165440D}">
+  <dimension ref="B2:L18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N15" sqref="N15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B2" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="C2" s="20"/>
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="20"/>
+      <c r="J2" s="20"/>
+      <c r="K2" s="20"/>
+      <c r="L2" s="20"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B3" s="20"/>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+      <c r="G3" s="20"/>
+      <c r="H3" s="20"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
+      <c r="K3" s="20"/>
+      <c r="L3" s="20"/>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>96</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+      <c r="G4" s="20"/>
+      <c r="H4" s="20"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
+      <c r="K4" s="20"/>
+      <c r="L4" s="20"/>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B5" s="20"/>
+      <c r="C5" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
+      <c r="K5" s="20"/>
+      <c r="L5" s="20"/>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
+      <c r="L6" s="20"/>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
+      <c r="L7" s="20"/>
+    </row>
+    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B8" s="20"/>
+      <c r="C8" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20"/>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
+      <c r="L8" s="20"/>
+    </row>
+    <row r="9" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
+      <c r="K9" s="20"/>
+      <c r="L9" s="20"/>
+    </row>
+    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B10" s="20"/>
+      <c r="C10" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
+      <c r="K10" s="20"/>
+      <c r="L10" s="20"/>
+    </row>
+    <row r="11" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B11" s="20"/>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
+      <c r="L11" s="20"/>
+    </row>
+    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B12" s="20"/>
+      <c r="C12" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20"/>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
+      <c r="L12" s="20"/>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
+      <c r="L13" s="20"/>
+    </row>
+    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B14" s="20"/>
+      <c r="C14" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+    </row>
+    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="20"/>
+    </row>
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="20"/>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="20"/>
+    </row>
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="B18" s="20"/>
+      <c r="C18" s="20"/>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="20"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+      <c r="K18" s="20"/>
+      <c r="L18" s="20"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C2:X48"/>
+  <dimension ref="C2:AE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N55" sqref="N55"/>
+    <sheetView tabSelected="1" topLeftCell="A94" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AB114" sqref="AB114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
@@ -867,8 +1898,599 @@
     </row>
     <row r="47" spans="3:16" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="3:16" collapsed="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="C50" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="51" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="D51" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="P51" s="4"/>
+      <c r="Q51" s="4"/>
+      <c r="R51" s="4"/>
+      <c r="S51" s="4"/>
+      <c r="T51" s="4"/>
+      <c r="U51" s="4"/>
+      <c r="V51" s="4"/>
+      <c r="W51" s="4"/>
+      <c r="X51" s="4"/>
+      <c r="Y51" s="4"/>
+      <c r="Z51" s="4"/>
+      <c r="AA51" s="4"/>
+      <c r="AB51" s="4"/>
+      <c r="AC51" s="4"/>
+      <c r="AD51" s="4"/>
+      <c r="AE51" s="4"/>
+    </row>
+    <row r="52" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="E52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="4"/>
+      <c r="K52" s="4"/>
+      <c r="L52" s="4"/>
+      <c r="M52" s="4"/>
+      <c r="N52" s="4"/>
+      <c r="O52" s="4"/>
+      <c r="P52" s="4"/>
+      <c r="Q52" s="4"/>
+      <c r="R52" s="4"/>
+      <c r="S52" s="4"/>
+      <c r="T52" s="4"/>
+      <c r="U52" s="4"/>
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="54" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="D54" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="F55" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="56" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="F56" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="57" spans="3:31" x14ac:dyDescent="0.3">
+      <c r="D57" s="21" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D78" s="1" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="102" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D102" s="1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="103" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D103" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="104" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D104" s="1" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="105" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D105" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="4"/>
+      <c r="K105" s="4"/>
+      <c r="L105" s="4"/>
+      <c r="M105" s="4"/>
+      <c r="N105" s="4"/>
+      <c r="O105" s="4"/>
+      <c r="P105" s="4"/>
+    </row>
+    <row r="106" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D106" s="1" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="108" spans="4:27" x14ac:dyDescent="0.3">
+      <c r="D108" s="22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E108" s="22"/>
+      <c r="F108" s="22"/>
+      <c r="G108" s="22"/>
+      <c r="H108" s="22"/>
+      <c r="I108" s="22"/>
+      <c r="J108" s="22"/>
+      <c r="K108" s="22"/>
+      <c r="L108" s="22"/>
+      <c r="M108" s="22"/>
+      <c r="N108" s="22"/>
+      <c r="O108" s="22"/>
+      <c r="P108" s="22"/>
+      <c r="Q108" s="22"/>
+      <c r="R108" s="22"/>
+      <c r="S108" s="22"/>
+      <c r="T108" s="22"/>
+      <c r="U108" s="22"/>
+      <c r="V108" s="22"/>
+      <c r="W108" s="22"/>
+      <c r="X108" s="4"/>
+      <c r="Y108" s="4"/>
+      <c r="Z108" s="4"/>
+      <c r="AA108" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="D57" r:id="rId1" location=":~:text=Can%20we%20override%20a%20static,static%20binding%20at%20compile%20time.&amp;text=If%20we%20call%20a%20static%20method%20by%20using%20the%20child,child%20class%20will%20be%20called." xr:uid="{C87579EA-C357-47F9-88A2-F10B84143161}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EE959B1E-C20E-4035-B00B-F135E9DF46A4}">
+  <dimension ref="B2:U48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6:AA7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="4.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="16384" width="4.140625" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="B2" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+    </row>
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C3" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C4" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="C5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K6" s="9" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="L7" s="9" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+    </row>
+    <row r="21" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+    </row>
+    <row r="22" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+    </row>
+    <row r="23" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+    </row>
+    <row r="24" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+    </row>
+    <row r="25" spans="3:21" ht="19.5" x14ac:dyDescent="0.35">
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="H29" s="8"/>
+      <c r="I29" s="8"/>
+      <c r="J29" s="8"/>
+      <c r="K29" s="8"/>
+      <c r="L29" s="8"/>
+      <c r="M29" s="8"/>
+      <c r="N29" s="8"/>
+      <c r="O29" s="8"/>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.3">
+      <c r="C32" s="8"/>
+    </row>
+    <row r="33" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="35" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="36" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="38" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="40" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="4:16" ht="19.5" hidden="1" x14ac:dyDescent="0.35">
+      <c r="F43" s="11"/>
+      <c r="P43" s="12"/>
+    </row>
+    <row r="44" spans="4:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="P44" s="8"/>
+    </row>
+    <row r="45" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="46" spans="4:16" hidden="1" x14ac:dyDescent="0.3">
+      <c r="D46" s="12"/>
+    </row>
+    <row r="47" spans="4:16" hidden="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="4:16" collapsed="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A05353C0-3FC9-4DB6-8BE6-78BEA6662512}">
+  <dimension ref="B3:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="32" style="14" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="14"/>
+    <col min="4" max="4" width="36.140625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="9.140625" style="14"/>
+    <col min="6" max="6" width="34.7109375" style="14" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="14"/>
+    <col min="8" max="8" width="36.42578125" style="14" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="F4" s="16"/>
+      <c r="H4" s="16"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>74</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6" s="16" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="18" t="s">
+        <v>54</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F7" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7" s="16" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F8" s="18"/>
+      <c r="H8" s="16" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="F9" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="16"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="F10" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="H10" s="16"/>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D11" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="H11" s="16"/>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D12" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="18"/>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D13" s="16" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D14" s="16" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D15" s="16" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D16" s="16" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D17" s="16" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D18" s="16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D19" s="16" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="D20" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B24" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B25" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C25" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B26" s="14" t="s">
+        <v>73</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B30" s="14" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="14" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="14" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C32" s="14" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C33" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="34" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C34" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C35" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>